--- a/code.xlsx
+++ b/code.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Armachat-Kayto\Armachat-Compact-Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3CAA40-94D8-4AEC-B4C4-19160F1095F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC37072-FF00-4A32-A8C1-FE26502CC5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8D7C0F3F-E92C-411F-B0D1-B1E0EFC87F37}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8D7C0F3F-E92C-411F-B0D1-B1E0EFC87F37}"/>
   </bookViews>
   <sheets>
     <sheet name="config.py" sheetId="2" r:id="rId1"/>
-    <sheet name="code.py" sheetId="5" r:id="rId2"/>
-    <sheet name="binary" sheetId="3" r:id="rId3"/>
-    <sheet name="loraProfile" sheetId="4" r:id="rId4"/>
+    <sheet name="config.py (Old)" sheetId="13" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Header" sheetId="7" r:id="rId4"/>
+    <sheet name="LoRa" sheetId="8" r:id="rId5"/>
+    <sheet name="code.py" sheetId="5" r:id="rId6"/>
+    <sheet name="binary" sheetId="3" r:id="rId7"/>
+    <sheet name="loraProfile" sheetId="4" r:id="rId8"/>
+    <sheet name="Keypad" sheetId="9" r:id="rId9"/>
+    <sheet name="Keypad (Col, Row)" sheetId="10" r:id="rId10"/>
+    <sheet name="Keypad (Col, Row) (2)" sheetId="11" r:id="rId11"/>
+    <sheet name="Messages" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +45,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="437">
   <si>
     <t>Variable</t>
   </si>
@@ -689,12 +719,747 @@
   <si>
     <t>#</t>
   </si>
+  <si>
+    <t>CONFIG_FILENAME</t>
+  </si>
+  <si>
+    <t>configFileItems</t>
+  </si>
+  <si>
+    <t>configToDict</t>
+  </si>
+  <si>
+    <t>fileExists</t>
+  </si>
+  <si>
+    <t>fileSystemWriteMode</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>readConfig</t>
+  </si>
+  <si>
+    <t>writeConfig</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>Exclude Type</t>
+  </si>
+  <si>
+    <t>Exclude Name</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>config_settings</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Message ID</t>
+  </si>
+  <si>
+    <t>Hop Limit</t>
+  </si>
+  <si>
+    <t>config.dest3</t>
+  </si>
+  <si>
+    <t>config.dest2</t>
+  </si>
+  <si>
+    <t>config.dest1</t>
+  </si>
+  <si>
+    <t>config.dest0</t>
+  </si>
+  <si>
+    <t>config.myGroup3</t>
+  </si>
+  <si>
+    <t>config.myGroup2</t>
+  </si>
+  <si>
+    <t>config.myGroup1</t>
+  </si>
+  <si>
+    <t>config.myID</t>
+  </si>
+  <si>
+    <t>random.randint(0, 255)</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>_freq</t>
+  </si>
+  <si>
+    <t>_tx_power</t>
+  </si>
+  <si>
+    <t>_modem_config</t>
+  </si>
+  <si>
+    <t>_receive_all</t>
+  </si>
+  <si>
+    <t>_acks</t>
+  </si>
+  <si>
+    <t>last_rssi</t>
+  </si>
+  <si>
+    <t>last_snr</t>
+  </si>
+  <si>
+    <t>_this_address</t>
+  </si>
+  <si>
+    <t>_group_mask</t>
+  </si>
+  <si>
+    <t>_hop_limit</t>
+  </si>
+  <si>
+    <t>_last_header_id</t>
+  </si>
+  <si>
+    <t>_last_payload</t>
+  </si>
+  <si>
+    <t>crypto</t>
+  </si>
+  <si>
+    <t>cad_timeout</t>
+  </si>
+  <si>
+    <t>send_retries</t>
+  </si>
+  <si>
+    <t>wait_packet_sent_timeout</t>
+  </si>
+  <si>
+    <t>retry_timeout</t>
+  </si>
+  <si>
+    <t>message_count</t>
+  </si>
+  <si>
+    <t>Range/Expected Values</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Set on class initialization</t>
+  </si>
+  <si>
+    <t>5 to 23</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>_mode</t>
+  </si>
+  <si>
+    <t>_cad</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>3 bytes</t>
+  </si>
+  <si>
+    <t>(0x72, 0x74, 0x04)</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>#-#-#-# w/# from 0 to 255</t>
+  </si>
+  <si>
+    <t>0-0-0-0</t>
+  </si>
+  <si>
+    <t>255-255-255-0</t>
+  </si>
+  <si>
+    <t>0 to 255</t>
+  </si>
+  <si>
+    <t>_device</t>
+  </si>
+  <si>
+    <t>SPIDevice</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>Return Type</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>msgId</t>
+  </si>
+  <si>
+    <t>list of integer value 0 to 255</t>
+  </si>
+  <si>
+    <t>If None then will generate random id</t>
+  </si>
+  <si>
+    <t>Calls</t>
+  </si>
+  <si>
+    <t>set_mode_idle</t>
+  </si>
+  <si>
+    <t>set_mode_tx</t>
+  </si>
+  <si>
+    <t>_spi_read</t>
+  </si>
+  <si>
+    <t>_spi_write</t>
+  </si>
+  <si>
+    <t>receive</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>set_mode_rx</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>169.0, 434.0, 868.0, 915.0</t>
+  </si>
+  <si>
+    <t>868.0</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>ENT</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Alt Key</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>ent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>bsp</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Key &amp; IO</t>
+  </si>
+  <si>
+    <t>Key &amp; Array Indexes</t>
+  </si>
+  <si>
+    <t>GP6</t>
+  </si>
+  <si>
+    <t>GP8</t>
+  </si>
+  <si>
+    <t>GP9</t>
+  </si>
+  <si>
+    <t>GP7</t>
+  </si>
+  <si>
+    <t>GP15</t>
+  </si>
+  <si>
+    <t>GP22</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>GP1</t>
+  </si>
+  <si>
+    <t>GP2</t>
+  </si>
+  <si>
+    <t>GP3</t>
+  </si>
+  <si>
+    <t>GP4</t>
+  </si>
+  <si>
+    <t>GP5</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>˄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Row/Col˃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>˅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Row/Col˃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>˂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Col/Row˅</t>
+    </r>
+  </si>
+  <si>
+    <t>packet_text</t>
+  </si>
+  <si>
+    <t>timeStamp</t>
+  </si>
+  <si>
+    <t>snr</t>
+  </si>
+  <si>
+    <t>rssi</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>messageID</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>b76ab505</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>ARMACHAT</t>
+  </si>
+  <si>
+    <t>DemoUser</t>
+  </si>
+  <si>
+    <t>Depricated</t>
+  </si>
+  <si>
+    <t>myAddress</t>
+  </si>
+  <si>
+    <t>groupMask</t>
+  </si>
+  <si>
+    <t>destinations</t>
+  </si>
+  <si>
+    <t>hopLimit</t>
+  </si>
+  <si>
+    <t>Test 1|12-36-124-1|Test 2|12-36-124-2|Test 3|12-36-124-3</t>
+  </si>
+  <si>
+    <t>19-18-17-1</t>
+  </si>
+  <si>
+    <t>Max number of hops that a message may make to reach destination (0 to 7)</t>
+  </si>
+  <si>
+    <t>Name|Address pairs for phonebook</t>
+  </si>
+  <si>
+    <t>Mask for setting the group</t>
+  </si>
+  <si>
+    <t>Address to listen for</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,8 +1475,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,8 +1508,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -797,11 +1599,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -843,6 +1804,55 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -853,13 +1863,49 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,13 +2221,5034 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3833FCF-5327-4714-ACA1-F4C71F2EEC58}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916F9AC1-AF3A-40D1-905F-36AB4C576775}">
+  <dimension ref="A1:U65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="L1" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="L6" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
+        <v>0</v>
+      </c>
+      <c r="B7" s="52">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="49">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15">
+        <v>4</v>
+      </c>
+      <c r="G7" s="49">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+      <c r="I7" s="52">
+        <v>1</v>
+      </c>
+      <c r="J7" s="48">
+        <v>0</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="P7" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="R7" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="S7" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="T7" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="U7" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>0</v>
+      </c>
+      <c r="B8" s="52">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="49">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15">
+        <v>4</v>
+      </c>
+      <c r="G8" s="49">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2</v>
+      </c>
+      <c r="I8" s="52">
+        <v>1</v>
+      </c>
+      <c r="J8" s="48">
+        <v>0</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="R8" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="S8" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="T8" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>0</v>
+      </c>
+      <c r="B9" s="52">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="49">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15">
+        <v>4</v>
+      </c>
+      <c r="G9" s="49">
+        <v>3</v>
+      </c>
+      <c r="H9" s="12">
+        <v>2</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1</v>
+      </c>
+      <c r="J9" s="48">
+        <v>0</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="R9" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="S9" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="T9" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="U9" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="L11" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="55">
+        <v>5</v>
+      </c>
+      <c r="B12" s="55">
+        <v>5</v>
+      </c>
+      <c r="C12" s="55">
+        <v>5</v>
+      </c>
+      <c r="D12" s="55">
+        <v>5</v>
+      </c>
+      <c r="E12" s="55">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="P12" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="R12" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="S12" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="T12" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="U12" s="53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15">
+        <v>4</v>
+      </c>
+      <c r="C13" s="15">
+        <v>4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>4</v>
+      </c>
+      <c r="F13" s="52">
+        <v>1</v>
+      </c>
+      <c r="G13" s="52">
+        <v>1</v>
+      </c>
+      <c r="H13" s="52">
+        <v>1</v>
+      </c>
+      <c r="I13" s="52">
+        <v>1</v>
+      </c>
+      <c r="J13" s="52">
+        <v>1</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="O13" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="P13" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q13" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="S13" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="T13" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="U13" s="50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
+        <v>3</v>
+      </c>
+      <c r="B14" s="49">
+        <v>3</v>
+      </c>
+      <c r="C14" s="49">
+        <v>3</v>
+      </c>
+      <c r="D14" s="49">
+        <v>3</v>
+      </c>
+      <c r="E14" s="49">
+        <v>3</v>
+      </c>
+      <c r="F14" s="48">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48">
+        <v>0</v>
+      </c>
+      <c r="H14" s="48">
+        <v>0</v>
+      </c>
+      <c r="I14" s="48">
+        <v>0</v>
+      </c>
+      <c r="J14" s="48">
+        <v>0</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="M14" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="O14" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="P14" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q14" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="R14" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="S14" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="T14" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="U14" s="46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="L16" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="str">
+        <f>A2 &amp; " (" &amp; A7 &amp; ", " &amp; A12 &amp; ")"</f>
+        <v>Q (0, 5)</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f>B2 &amp; " (" &amp; B7 &amp; ", " &amp; B12 &amp; ")"</f>
+        <v>W (1, 5)</v>
+      </c>
+      <c r="C17" s="9" t="str">
+        <f>C2 &amp; " (" &amp; C7 &amp; ", " &amp; C12 &amp; ")"</f>
+        <v>E (2, 5)</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <f>D2 &amp; " (" &amp; D7 &amp; ", " &amp; D12 &amp; ")"</f>
+        <v>R (3, 5)</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f>E2 &amp; " (" &amp; E7 &amp; ", " &amp; E12 &amp; ")"</f>
+        <v>T (4, 5)</v>
+      </c>
+      <c r="F17" s="9" t="str">
+        <f>F2 &amp; " (" &amp; F7 &amp; ", " &amp; F12 &amp; ")"</f>
+        <v>Y (4, 2)</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f>G2 &amp; " (" &amp; G7 &amp; ", " &amp; G12 &amp; ")"</f>
+        <v>U (3, 2)</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <f>H2 &amp; " (" &amp; H7 &amp; ", " &amp; H12 &amp; ")"</f>
+        <v>I (2, 2)</v>
+      </c>
+      <c r="I17" s="9" t="str">
+        <f>I2 &amp; " (" &amp; I7 &amp; ", " &amp; I12 &amp; ")"</f>
+        <v>O (1, 2)</v>
+      </c>
+      <c r="J17" s="9" t="str">
+        <f>J2 &amp; " (" &amp; J7 &amp; ", " &amp; J12 &amp; ")"</f>
+        <v>P (0, 2)</v>
+      </c>
+      <c r="L17" s="9" t="str">
+        <f>L2 &amp; " (" &amp; L7 &amp; ", " &amp; L12 &amp; ")"</f>
+        <v>Q (GP1, GP22)</v>
+      </c>
+      <c r="M17" s="9" t="str">
+        <f>M2 &amp; " (" &amp; M7 &amp; ", " &amp; M12 &amp; ")"</f>
+        <v>W (GP2, GP22)</v>
+      </c>
+      <c r="N17" s="9" t="str">
+        <f>N2 &amp; " (" &amp; N7 &amp; ", " &amp; N12 &amp; ")"</f>
+        <v>E (GP3, GP22)</v>
+      </c>
+      <c r="O17" s="9" t="str">
+        <f>O2 &amp; " (" &amp; O7 &amp; ", " &amp; O12 &amp; ")"</f>
+        <v>R (GP4, GP22)</v>
+      </c>
+      <c r="P17" s="9" t="str">
+        <f>P2 &amp; " (" &amp; P7 &amp; ", " &amp; P12 &amp; ")"</f>
+        <v>T (GP5, GP22)</v>
+      </c>
+      <c r="Q17" s="9" t="str">
+        <f>Q2 &amp; " (" &amp; Q7 &amp; ", " &amp; Q12 &amp; ")"</f>
+        <v>Y (GP5, GP15)</v>
+      </c>
+      <c r="R17" s="9" t="str">
+        <f>R2 &amp; " (" &amp; R7 &amp; ", " &amp; R12 &amp; ")"</f>
+        <v>U (GP4, GP15)</v>
+      </c>
+      <c r="S17" s="9" t="str">
+        <f>S2 &amp; " (" &amp; S7 &amp; ", " &amp; S12 &amp; ")"</f>
+        <v>I (GP3, GP15)</v>
+      </c>
+      <c r="T17" s="9" t="str">
+        <f>T2 &amp; " (" &amp; T7 &amp; ", " &amp; T12 &amp; ")"</f>
+        <v>O (GP2, GP15)</v>
+      </c>
+      <c r="U17" s="9" t="str">
+        <f>U2 &amp; " (" &amp; U7 &amp; ", " &amp; U12 &amp; ")"</f>
+        <v>P (GP1, GP15)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="str">
+        <f>A3 &amp; " (" &amp; A8 &amp; ", " &amp; A13 &amp; ")"</f>
+        <v>A (0, 4)</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f>B3 &amp; " (" &amp; B8 &amp; ", " &amp; B13 &amp; ")"</f>
+        <v>S (1, 4)</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f>C3 &amp; " (" &amp; C8 &amp; ", " &amp; C13 &amp; ")"</f>
+        <v>D (2, 4)</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <f>D3 &amp; " (" &amp; D8 &amp; ", " &amp; D13 &amp; ")"</f>
+        <v>F (3, 4)</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f>E3 &amp; " (" &amp; E8 &amp; ", " &amp; E13 &amp; ")"</f>
+        <v>G (4, 4)</v>
+      </c>
+      <c r="F18" s="9" t="str">
+        <f>F3 &amp; " (" &amp; F8 &amp; ", " &amp; F13 &amp; ")"</f>
+        <v>H (4, 1)</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f>G3 &amp; " (" &amp; G8 &amp; ", " &amp; G13 &amp; ")"</f>
+        <v>J (3, 1)</v>
+      </c>
+      <c r="H18" s="9" t="str">
+        <f>H3 &amp; " (" &amp; H8 &amp; ", " &amp; H13 &amp; ")"</f>
+        <v>K (2, 1)</v>
+      </c>
+      <c r="I18" s="9" t="str">
+        <f>I3 &amp; " (" &amp; I8 &amp; ", " &amp; I13 &amp; ")"</f>
+        <v>L (1, 1)</v>
+      </c>
+      <c r="J18" s="9" t="str">
+        <f>J3 &amp; " (" &amp; J8 &amp; ", " &amp; J13 &amp; ")"</f>
+        <v>DEL (0, 1)</v>
+      </c>
+      <c r="L18" s="9" t="str">
+        <f>L3 &amp; " (" &amp; L8 &amp; ", " &amp; L13 &amp; ")"</f>
+        <v>A (GP1, GP7)</v>
+      </c>
+      <c r="M18" s="9" t="str">
+        <f>M3 &amp; " (" &amp; M8 &amp; ", " &amp; M13 &amp; ")"</f>
+        <v>S (GP2, GP7)</v>
+      </c>
+      <c r="N18" s="9" t="str">
+        <f>N3 &amp; " (" &amp; N8 &amp; ", " &amp; N13 &amp; ")"</f>
+        <v>D (GP3, GP7)</v>
+      </c>
+      <c r="O18" s="9" t="str">
+        <f>O3 &amp; " (" &amp; O8 &amp; ", " &amp; O13 &amp; ")"</f>
+        <v>F (GP4, GP7)</v>
+      </c>
+      <c r="P18" s="9" t="str">
+        <f>P3 &amp; " (" &amp; P8 &amp; ", " &amp; P13 &amp; ")"</f>
+        <v>G (GP5, GP7)</v>
+      </c>
+      <c r="Q18" s="9" t="str">
+        <f>Q3 &amp; " (" &amp; Q8 &amp; ", " &amp; Q13 &amp; ")"</f>
+        <v>H (GP5, GP9)</v>
+      </c>
+      <c r="R18" s="9" t="str">
+        <f>R3 &amp; " (" &amp; R8 &amp; ", " &amp; R13 &amp; ")"</f>
+        <v>J (GP4, GP9)</v>
+      </c>
+      <c r="S18" s="9" t="str">
+        <f>S3 &amp; " (" &amp; S8 &amp; ", " &amp; S13 &amp; ")"</f>
+        <v>K (GP3, GP9)</v>
+      </c>
+      <c r="T18" s="9" t="str">
+        <f>T3 &amp; " (" &amp; T8 &amp; ", " &amp; T13 &amp; ")"</f>
+        <v>L (GP2, GP9)</v>
+      </c>
+      <c r="U18" s="9" t="str">
+        <f>U3 &amp; " (" &amp; U8 &amp; ", " &amp; U13 &amp; ")"</f>
+        <v>DEL (GP1, GP9)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="str">
+        <f>A4 &amp; " (" &amp; A9 &amp; ", " &amp; A14 &amp; ")"</f>
+        <v>ALT (0, 3)</v>
+      </c>
+      <c r="B19" s="9" t="str">
+        <f>B4 &amp; " (" &amp; B9 &amp; ", " &amp; B14 &amp; ")"</f>
+        <v>Z (1, 3)</v>
+      </c>
+      <c r="C19" s="9" t="str">
+        <f>C4 &amp; " (" &amp; C9 &amp; ", " &amp; C14 &amp; ")"</f>
+        <v>X (2, 3)</v>
+      </c>
+      <c r="D19" s="9" t="str">
+        <f>D4 &amp; " (" &amp; D9 &amp; ", " &amp; D14 &amp; ")"</f>
+        <v>C (3, 3)</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f>E4 &amp; " (" &amp; E9 &amp; ", " &amp; E14 &amp; ")"</f>
+        <v>V (4, 3)</v>
+      </c>
+      <c r="F19" s="9" t="str">
+        <f>F4 &amp; " (" &amp; F9 &amp; ", " &amp; F14 &amp; ")"</f>
+        <v>B (4, 0)</v>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f>G4 &amp; " (" &amp; G9 &amp; ", " &amp; G14 &amp; ")"</f>
+        <v>N (3, 0)</v>
+      </c>
+      <c r="H19" s="9" t="str">
+        <f>H4 &amp; " (" &amp; H9 &amp; ", " &amp; H14 &amp; ")"</f>
+        <v>M (2, 0)</v>
+      </c>
+      <c r="I19" s="9" t="str">
+        <f>I4 &amp; " (" &amp; I9 &amp; ", " &amp; I14 &amp; ")"</f>
+        <v>SPC (1, 0)</v>
+      </c>
+      <c r="J19" s="9" t="str">
+        <f>J4 &amp; " (" &amp; J9 &amp; ", " &amp; J14 &amp; ")"</f>
+        <v>ENT (0, 0)</v>
+      </c>
+      <c r="L19" s="9" t="str">
+        <f>L4 &amp; " (" &amp; L9 &amp; ", " &amp; L14 &amp; ")"</f>
+        <v>ALT (GP1, GP8)</v>
+      </c>
+      <c r="M19" s="9" t="str">
+        <f>M4 &amp; " (" &amp; M9 &amp; ", " &amp; M14 &amp; ")"</f>
+        <v>Z (GP2, GP8)</v>
+      </c>
+      <c r="N19" s="9" t="str">
+        <f>N4 &amp; " (" &amp; N9 &amp; ", " &amp; N14 &amp; ")"</f>
+        <v>X (GP3, GP8)</v>
+      </c>
+      <c r="O19" s="9" t="str">
+        <f>O4 &amp; " (" &amp; O9 &amp; ", " &amp; O14 &amp; ")"</f>
+        <v>C (GP4, GP8)</v>
+      </c>
+      <c r="P19" s="9" t="str">
+        <f>P4 &amp; " (" &amp; P9 &amp; ", " &amp; P14 &amp; ")"</f>
+        <v>V (GP5, GP8)</v>
+      </c>
+      <c r="Q19" s="9" t="str">
+        <f>Q4 &amp; " (" &amp; Q9 &amp; ", " &amp; Q14 &amp; ")"</f>
+        <v>B (GP5, GP6)</v>
+      </c>
+      <c r="R19" s="9" t="str">
+        <f>R4 &amp; " (" &amp; R9 &amp; ", " &amp; R14 &amp; ")"</f>
+        <v>N (GP4, GP6)</v>
+      </c>
+      <c r="S19" s="9" t="str">
+        <f>S4 &amp; " (" &amp; S9 &amp; ", " &amp; S14 &amp; ")"</f>
+        <v>M (GP3, GP6)</v>
+      </c>
+      <c r="T19" s="9" t="str">
+        <f>T4 &amp; " (" &amp; T9 &amp; ", " &amp; T14 &amp; ")"</f>
+        <v>SPC (GP2, GP6)</v>
+      </c>
+      <c r="U19" s="9" t="str">
+        <f>U4 &amp; " (" &amp; U9 &amp; ", " &amp; U14 &amp; ")"</f>
+        <v>ENT (GP1, GP6)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" t="s">
+        <v>381</v>
+      </c>
+      <c r="E22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G22" t="s">
+        <v>378</v>
+      </c>
+      <c r="H22" t="s">
+        <v>377</v>
+      </c>
+      <c r="I22" t="s">
+        <v>376</v>
+      </c>
+      <c r="J22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" t="s">
+        <v>372</v>
+      </c>
+      <c r="D23" t="s">
+        <v>371</v>
+      </c>
+      <c r="E23" t="s">
+        <v>370</v>
+      </c>
+      <c r="F23" t="s">
+        <v>369</v>
+      </c>
+      <c r="G23" t="s">
+        <v>368</v>
+      </c>
+      <c r="H23" t="s">
+        <v>367</v>
+      </c>
+      <c r="I23" t="s">
+        <v>366</v>
+      </c>
+      <c r="J23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E24" t="s">
+        <v>361</v>
+      </c>
+      <c r="F24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G24" t="s">
+        <v>359</v>
+      </c>
+      <c r="H24" t="s">
+        <v>358</v>
+      </c>
+      <c r="I24" t="s">
+        <v>357</v>
+      </c>
+      <c r="J24" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" t="s">
+        <v>331</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" t="s">
+        <v>327</v>
+      </c>
+      <c r="H28" t="s">
+        <v>325</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="J28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" t="s">
+        <v>315</v>
+      </c>
+      <c r="D29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" t="s">
+        <v>309</v>
+      </c>
+      <c r="H29" t="s">
+        <v>307</v>
+      </c>
+      <c r="I29" t="s">
+        <v>305</v>
+      </c>
+      <c r="J29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>343</v>
+      </c>
+      <c r="E32" t="s">
+        <v>342</v>
+      </c>
+      <c r="F32" t="s">
+        <v>341</v>
+      </c>
+      <c r="G32" t="s">
+        <v>340</v>
+      </c>
+      <c r="H32" t="s">
+        <v>339</v>
+      </c>
+      <c r="I32" t="s">
+        <v>338</v>
+      </c>
+      <c r="J32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>332</v>
+      </c>
+      <c r="F33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H33" t="s">
+        <v>326</v>
+      </c>
+      <c r="I33" t="s">
+        <v>324</v>
+      </c>
+      <c r="J33" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>313</v>
+      </c>
+      <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>310</v>
+      </c>
+      <c r="H34" t="s">
+        <v>308</v>
+      </c>
+      <c r="I34" t="s">
+        <v>351</v>
+      </c>
+      <c r="J34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" t="s">
+        <v>330</v>
+      </c>
+      <c r="E36" t="s">
+        <v>332</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="str">
+        <f>A21</f>
+        <v>keys1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="str" cm="1">
+        <f t="array" aca="1" ref="B40" ca="1">INDIRECT(B$36 &amp; $H40)</f>
+        <v>ent</v>
+      </c>
+      <c r="C40" t="str" cm="1">
+        <f t="array" aca="1" ref="C40" ca="1">INDIRECT(C$36 &amp; $H40)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D40" t="str" cm="1">
+        <f t="array" aca="1" ref="D40" ca="1">INDIRECT(D$36 &amp; $H40)</f>
+        <v>m</v>
+      </c>
+      <c r="E40" t="str" cm="1">
+        <f t="array" aca="1" ref="E40" ca="1">INDIRECT(E$36 &amp; $H40)</f>
+        <v>n</v>
+      </c>
+      <c r="F40" t="str" cm="1">
+        <f t="array" aca="1" ref="F40" ca="1">INDIRECT(F$36 &amp; $H40)</f>
+        <v>b</v>
+      </c>
+      <c r="H40">
+        <v>24</v>
+      </c>
+      <c r="J40" t="str">
+        <f ca="1">"('" &amp; B40 &amp; "', '" &amp; C40 &amp; "', '" &amp; D40 &amp; "', '" &amp; E40 &amp; "', '" &amp; F40 &amp; "'),"</f>
+        <v>('ent', ' ', 'm', 'n', 'b'),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="str" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">INDIRECT(B$36 &amp; $H41)</f>
+        <v>bsp</v>
+      </c>
+      <c r="C41" t="str" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">INDIRECT(C$36 &amp; $H41)</f>
+        <v>l</v>
+      </c>
+      <c r="D41" t="str" cm="1">
+        <f t="array" aca="1" ref="D41" ca="1">INDIRECT(D$36 &amp; $H41)</f>
+        <v>k</v>
+      </c>
+      <c r="E41" t="str" cm="1">
+        <f t="array" aca="1" ref="E41" ca="1">INDIRECT(E$36 &amp; $H41)</f>
+        <v>j</v>
+      </c>
+      <c r="F41" t="str" cm="1">
+        <f t="array" aca="1" ref="F41" ca="1">INDIRECT(F$36 &amp; $H41)</f>
+        <v>h</v>
+      </c>
+      <c r="H41">
+        <v>23</v>
+      </c>
+      <c r="J41" t="str">
+        <f ca="1">"('" &amp; B41 &amp; "', '" &amp; C41 &amp; "', '" &amp; D41 &amp; "', '" &amp; E41 &amp; "', '" &amp; F41 &amp; "'),"</f>
+        <v>('bsp', 'l', 'k', 'j', 'h'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="str" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">INDIRECT(B$36 &amp; $H42)</f>
+        <v>p</v>
+      </c>
+      <c r="C42" t="str" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">INDIRECT(C$36 &amp; $H42)</f>
+        <v>o</v>
+      </c>
+      <c r="D42" t="str" cm="1">
+        <f t="array" aca="1" ref="D42" ca="1">INDIRECT(D$36 &amp; $H42)</f>
+        <v>i</v>
+      </c>
+      <c r="E42" t="str" cm="1">
+        <f t="array" aca="1" ref="E42" ca="1">INDIRECT(E$36 &amp; $H42)</f>
+        <v>u</v>
+      </c>
+      <c r="F42" t="str" cm="1">
+        <f t="array" aca="1" ref="F42" ca="1">INDIRECT(F$36 &amp; $H42)</f>
+        <v>y</v>
+      </c>
+      <c r="H42">
+        <v>22</v>
+      </c>
+      <c r="J42" t="str">
+        <f ca="1">"('" &amp; B42 &amp; "', '" &amp; C42 &amp; "', '" &amp; D42 &amp; "', '" &amp; E42 &amp; "', '" &amp; F42 &amp; "'),"</f>
+        <v>('p', 'o', 'i', 'u', 'y'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="str" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">INDIRECT(B$65 &amp; $H43)</f>
+        <v>alt</v>
+      </c>
+      <c r="C43" t="str" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">INDIRECT(C$65 &amp; $H43)</f>
+        <v>z</v>
+      </c>
+      <c r="D43" t="str" cm="1">
+        <f t="array" aca="1" ref="D43" ca="1">INDIRECT(D$65 &amp; $H43)</f>
+        <v>x</v>
+      </c>
+      <c r="E43" t="str" cm="1">
+        <f t="array" aca="1" ref="E43" ca="1">INDIRECT(E$65 &amp; $H43)</f>
+        <v>c</v>
+      </c>
+      <c r="F43" t="str" cm="1">
+        <f t="array" aca="1" ref="F43" ca="1">INDIRECT(F$65 &amp; $H43)</f>
+        <v>v</v>
+      </c>
+      <c r="H43">
+        <v>24</v>
+      </c>
+      <c r="J43" t="str">
+        <f ca="1">"('" &amp; B43 &amp; "', '" &amp; C43 &amp; "', '" &amp; D43 &amp; "', '" &amp; E43 &amp; "', '" &amp; F43 &amp; "'),"</f>
+        <v>('alt', 'z', 'x', 'c', 'v'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="str" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">INDIRECT(B$65 &amp; $H44)</f>
+        <v>a</v>
+      </c>
+      <c r="C44" t="str" cm="1">
+        <f t="array" aca="1" ref="C44" ca="1">INDIRECT(C$65 &amp; $H44)</f>
+        <v>s</v>
+      </c>
+      <c r="D44" t="str" cm="1">
+        <f t="array" aca="1" ref="D44" ca="1">INDIRECT(D$65 &amp; $H44)</f>
+        <v>d</v>
+      </c>
+      <c r="E44" t="str" cm="1">
+        <f t="array" aca="1" ref="E44" ca="1">INDIRECT(E$65 &amp; $H44)</f>
+        <v>f</v>
+      </c>
+      <c r="F44" t="str" cm="1">
+        <f t="array" aca="1" ref="F44" ca="1">INDIRECT(F$65 &amp; $H44)</f>
+        <v>g</v>
+      </c>
+      <c r="H44">
+        <v>23</v>
+      </c>
+      <c r="J44" t="str">
+        <f ca="1">"('" &amp; B44 &amp; "', '" &amp; C44 &amp; "', '" &amp; D44 &amp; "', '" &amp; E44 &amp; "', '" &amp; F44 &amp; "'),"</f>
+        <v>('a', 's', 'd', 'f', 'g'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="str" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">INDIRECT(B$65 &amp; $H45)</f>
+        <v>q</v>
+      </c>
+      <c r="C45" t="str" cm="1">
+        <f t="array" aca="1" ref="C45" ca="1">INDIRECT(C$65 &amp; $H45)</f>
+        <v>w</v>
+      </c>
+      <c r="D45" t="str" cm="1">
+        <f t="array" aca="1" ref="D45" ca="1">INDIRECT(D$65 &amp; $H45)</f>
+        <v>e</v>
+      </c>
+      <c r="E45" t="str" cm="1">
+        <f t="array" aca="1" ref="E45" ca="1">INDIRECT(E$65 &amp; $H45)</f>
+        <v>r</v>
+      </c>
+      <c r="F45" t="str" cm="1">
+        <f t="array" aca="1" ref="F45" ca="1">INDIRECT(F$65 &amp; $H45)</f>
+        <v>t</v>
+      </c>
+      <c r="H45">
+        <v>22</v>
+      </c>
+      <c r="J45" t="str">
+        <f ca="1">"('" &amp; B45 &amp; "', '" &amp; C45 &amp; "', '" &amp; D45 &amp; "', '" &amp; E45 &amp; "', '" &amp; F45 &amp; "'),"</f>
+        <v>('q', 'w', 'e', 'r', 't'),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="str">
+        <f>A26</f>
+        <v>keys2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" t="str" cm="1">
+        <f t="array" aca="1" ref="B49" ca="1">INDIRECT(B$36 &amp; $H49)</f>
+        <v>rt</v>
+      </c>
+      <c r="C49" t="str" cm="1">
+        <f t="array" aca="1" ref="C49" ca="1">INDIRECT(C$36 &amp; $H49)</f>
+        <v>.</v>
+      </c>
+      <c r="D49" t="str" cm="1">
+        <f t="array" aca="1" ref="D49" ca="1">INDIRECT(D$36 &amp; $H49)</f>
+        <v>:</v>
+      </c>
+      <c r="E49" t="str" cm="1">
+        <f t="array" aca="1" ref="E49" ca="1">INDIRECT(E$36 &amp; $H49)</f>
+        <v>;</v>
+      </c>
+      <c r="F49" t="str" cm="1">
+        <f t="array" aca="1" ref="F49" ca="1">INDIRECT(F$36 &amp; $H49)</f>
+        <v>"</v>
+      </c>
+      <c r="H49">
+        <v>29</v>
+      </c>
+      <c r="J49" t="str">
+        <f ca="1">"('" &amp; B49 &amp; "', '" &amp; C49 &amp; "', '" &amp; D49 &amp; "', '" &amp; E49 &amp; "', '" &amp; F49 &amp; "'),"</f>
+        <v>('rt', '.', ':', ';', '"'),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="str" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">INDIRECT(B$36 &amp; $H50)</f>
+        <v>lt</v>
+      </c>
+      <c r="C50" t="str" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">INDIRECT(C$36 &amp; $H50)</f>
+        <v>-</v>
+      </c>
+      <c r="D50" t="str" cm="1">
+        <f t="array" aca="1" ref="D50" ca="1">INDIRECT(D$36 &amp; $H50)</f>
+        <v>*</v>
+      </c>
+      <c r="E50" t="str" cm="1">
+        <f t="array" aca="1" ref="E50" ca="1">INDIRECT(E$36 &amp; $H50)</f>
+        <v>&amp;</v>
+      </c>
+      <c r="F50" t="str" cm="1">
+        <f t="array" aca="1" ref="F50" ca="1">INDIRECT(F$36 &amp; $H50)</f>
+        <v>+</v>
+      </c>
+      <c r="H50">
+        <v>28</v>
+      </c>
+      <c r="J50" t="str">
+        <f ca="1">"('" &amp; B50 &amp; "', '" &amp; C50 &amp; "', '" &amp; D50 &amp; "', '" &amp; E50 &amp; "', '" &amp; F50 &amp; "'),"</f>
+        <v>('lt', '-', '*', '&amp;', '+'),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" cm="1">
+        <f t="array" aca="1" ref="B51" ca="1">INDIRECT(B$36 &amp; $H51)</f>
+        <v>0</v>
+      </c>
+      <c r="C51" cm="1">
+        <f t="array" aca="1" ref="C51" ca="1">INDIRECT(C$36 &amp; $H51)</f>
+        <v>9</v>
+      </c>
+      <c r="D51" cm="1">
+        <f t="array" aca="1" ref="D51" ca="1">INDIRECT(D$36 &amp; $H51)</f>
+        <v>8</v>
+      </c>
+      <c r="E51" cm="1">
+        <f t="array" aca="1" ref="E51" ca="1">INDIRECT(E$36 &amp; $H51)</f>
+        <v>7</v>
+      </c>
+      <c r="F51" cm="1">
+        <f t="array" aca="1" ref="F51" ca="1">INDIRECT(F$36 &amp; $H51)</f>
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>27</v>
+      </c>
+      <c r="J51" t="str">
+        <f ca="1">"('" &amp; B51 &amp; "', '" &amp; C51 &amp; "', '" &amp; D51 &amp; "', '" &amp; E51 &amp; "', '" &amp; F51 &amp; "'),"</f>
+        <v>('0', '9', '8', '7', '6'),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="str" cm="1">
+        <f t="array" aca="1" ref="B52" ca="1">INDIRECT(B$65 &amp; $H52)</f>
+        <v>alt</v>
+      </c>
+      <c r="C52" t="str" cm="1">
+        <f t="array" aca="1" ref="C52" ca="1">INDIRECT(C$65 &amp; $H52)</f>
+        <v>(</v>
+      </c>
+      <c r="D52" t="str" cm="1">
+        <f t="array" aca="1" ref="D52" ca="1">INDIRECT(D$65 &amp; $H52)</f>
+        <v>)</v>
+      </c>
+      <c r="E52" t="str" cm="1">
+        <f t="array" aca="1" ref="E52" ca="1">INDIRECT(E$65 &amp; $H52)</f>
+        <v>?</v>
+      </c>
+      <c r="F52" t="str" cm="1">
+        <f t="array" aca="1" ref="F52" ca="1">INDIRECT(F$65 &amp; $H52)</f>
+        <v>/</v>
+      </c>
+      <c r="H52">
+        <v>29</v>
+      </c>
+      <c r="J52" t="str">
+        <f ca="1">"('" &amp; B52 &amp; "', '" &amp; C52 &amp; "', '" &amp; D52 &amp; "', '" &amp; E52 &amp; "', '" &amp; F52 &amp; "'),"</f>
+        <v>('alt', '(', ')', '?', '/'),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="str" cm="1">
+        <f t="array" aca="1" ref="B53" ca="1">INDIRECT(B$65 &amp; $H53)</f>
+        <v>!</v>
+      </c>
+      <c r="C53" t="str" cm="1">
+        <f t="array" aca="1" ref="C53" ca="1">INDIRECT(C$65 &amp; $H53)</f>
+        <v>@</v>
+      </c>
+      <c r="D53" t="str" cm="1">
+        <f t="array" aca="1" ref="D53" ca="1">INDIRECT(D$65 &amp; $H53)</f>
+        <v>#</v>
+      </c>
+      <c r="E53" t="str" cm="1">
+        <f t="array" aca="1" ref="E53" ca="1">INDIRECT(E$65 &amp; $H53)</f>
+        <v>$</v>
+      </c>
+      <c r="F53" t="str" cm="1">
+        <f t="array" aca="1" ref="F53" ca="1">INDIRECT(F$65 &amp; $H53)</f>
+        <v>%</v>
+      </c>
+      <c r="H53">
+        <v>28</v>
+      </c>
+      <c r="J53" t="str">
+        <f ca="1">"('" &amp; B53 &amp; "', '" &amp; C53 &amp; "', '" &amp; D53 &amp; "', '" &amp; E53 &amp; "', '" &amp; F53 &amp; "'),"</f>
+        <v>('!', '@', '#', '$', '%'),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" cm="1">
+        <f t="array" aca="1" ref="B54" ca="1">INDIRECT(B$65 &amp; $H54)</f>
+        <v>1</v>
+      </c>
+      <c r="C54" cm="1">
+        <f t="array" aca="1" ref="C54" ca="1">INDIRECT(C$65 &amp; $H54)</f>
+        <v>2</v>
+      </c>
+      <c r="D54" cm="1">
+        <f t="array" aca="1" ref="D54" ca="1">INDIRECT(D$65 &amp; $H54)</f>
+        <v>3</v>
+      </c>
+      <c r="E54" cm="1">
+        <f t="array" aca="1" ref="E54" ca="1">INDIRECT(E$65 &amp; $H54)</f>
+        <v>4</v>
+      </c>
+      <c r="F54" cm="1">
+        <f t="array" aca="1" ref="F54" ca="1">INDIRECT(F$65 &amp; $H54)</f>
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>27</v>
+      </c>
+      <c r="J54" t="str">
+        <f ca="1">"('" &amp; B54 &amp; "', '" &amp; C54 &amp; "', '" &amp; D54 &amp; "', '" &amp; E54 &amp; "', '" &amp; F54 &amp; "'),"</f>
+        <v>('1', '2', '3', '4', '5'),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="str">
+        <f>A31</f>
+        <v>keys3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58" t="str" cm="1">
+        <f t="array" aca="1" ref="B58" ca="1">INDIRECT(B$36 &amp; $H58)</f>
+        <v>dn</v>
+      </c>
+      <c r="C58" t="str" cm="1">
+        <f t="array" aca="1" ref="C58" ca="1">INDIRECT(C$36 &amp; $H58)</f>
+        <v>,</v>
+      </c>
+      <c r="D58" t="str" cm="1">
+        <f t="array" aca="1" ref="D58" ca="1">INDIRECT(D$36 &amp; $H58)</f>
+        <v>M</v>
+      </c>
+      <c r="E58" t="str" cm="1">
+        <f t="array" aca="1" ref="E58" ca="1">INDIRECT(E$36 &amp; $H58)</f>
+        <v>N</v>
+      </c>
+      <c r="F58" t="str" cm="1">
+        <f t="array" aca="1" ref="F58" ca="1">INDIRECT(F$36 &amp; $H58)</f>
+        <v>B</v>
+      </c>
+      <c r="H58">
+        <v>34</v>
+      </c>
+      <c r="J58" t="str">
+        <f ca="1">"('" &amp; B58 &amp; "', '" &amp; C58 &amp; "', '" &amp; D58 &amp; "', '" &amp; E58 &amp; "', '" &amp; F58 &amp; "'),"</f>
+        <v>('dn', ',', 'M', 'N', 'B'),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="str" cm="1">
+        <f t="array" aca="1" ref="B59" ca="1">INDIRECT(B$36 &amp; $H59)</f>
+        <v>up</v>
+      </c>
+      <c r="C59" t="str" cm="1">
+        <f t="array" aca="1" ref="C59" ca="1">INDIRECT(C$36 &amp; $H59)</f>
+        <v>L</v>
+      </c>
+      <c r="D59" t="str" cm="1">
+        <f t="array" aca="1" ref="D59" ca="1">INDIRECT(D$36 &amp; $H59)</f>
+        <v>K</v>
+      </c>
+      <c r="E59" t="str" cm="1">
+        <f t="array" aca="1" ref="E59" ca="1">INDIRECT(E$36 &amp; $H59)</f>
+        <v>J</v>
+      </c>
+      <c r="F59" t="str" cm="1">
+        <f t="array" aca="1" ref="F59" ca="1">INDIRECT(F$36 &amp; $H59)</f>
+        <v>H</v>
+      </c>
+      <c r="H59">
+        <v>33</v>
+      </c>
+      <c r="J59" t="str">
+        <f ca="1">"('" &amp; B59 &amp; "', '" &amp; C59 &amp; "', '" &amp; D59 &amp; "', '" &amp; E59 &amp; "', '" &amp; F59 &amp; "'),"</f>
+        <v>('up', 'L', 'K', 'J', 'H'),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="str" cm="1">
+        <f t="array" aca="1" ref="B60" ca="1">INDIRECT(B$36 &amp; $H60)</f>
+        <v>P</v>
+      </c>
+      <c r="C60" t="str" cm="1">
+        <f t="array" aca="1" ref="C60" ca="1">INDIRECT(C$36 &amp; $H60)</f>
+        <v>O</v>
+      </c>
+      <c r="D60" t="str" cm="1">
+        <f t="array" aca="1" ref="D60" ca="1">INDIRECT(D$36 &amp; $H60)</f>
+        <v>I</v>
+      </c>
+      <c r="E60" t="str" cm="1">
+        <f t="array" aca="1" ref="E60" ca="1">INDIRECT(E$36 &amp; $H60)</f>
+        <v>U</v>
+      </c>
+      <c r="F60" t="str" cm="1">
+        <f t="array" aca="1" ref="F60" ca="1">INDIRECT(F$36 &amp; $H60)</f>
+        <v>Y</v>
+      </c>
+      <c r="H60">
+        <v>32</v>
+      </c>
+      <c r="J60" t="str">
+        <f ca="1">"('" &amp; B60 &amp; "', '" &amp; C60 &amp; "', '" &amp; D60 &amp; "', '" &amp; E60 &amp; "', '" &amp; F60 &amp; "'),"</f>
+        <v>('P', 'O', 'I', 'U', 'Y'),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="str" cm="1">
+        <f t="array" aca="1" ref="B61" ca="1">INDIRECT(B$65 &amp; $H61)</f>
+        <v>alt</v>
+      </c>
+      <c r="C61" t="str" cm="1">
+        <f t="array" aca="1" ref="C61" ca="1">INDIRECT(C$65 &amp; $H61)</f>
+        <v>Z</v>
+      </c>
+      <c r="D61" t="str" cm="1">
+        <f t="array" aca="1" ref="D61" ca="1">INDIRECT(D$65 &amp; $H61)</f>
+        <v>X</v>
+      </c>
+      <c r="E61" t="str" cm="1">
+        <f t="array" aca="1" ref="E61" ca="1">INDIRECT(E$65 &amp; $H61)</f>
+        <v>C</v>
+      </c>
+      <c r="F61" t="str" cm="1">
+        <f t="array" aca="1" ref="F61" ca="1">INDIRECT(F$65 &amp; $H61)</f>
+        <v>V</v>
+      </c>
+      <c r="H61">
+        <v>34</v>
+      </c>
+      <c r="J61" t="str">
+        <f ca="1">"('" &amp; B61 &amp; "', '" &amp; C61 &amp; "', '" &amp; D61 &amp; "', '" &amp; E61 &amp; "', '" &amp; F61 &amp; "'),"</f>
+        <v>('alt', 'Z', 'X', 'C', 'V'),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" t="str" cm="1">
+        <f t="array" aca="1" ref="B62" ca="1">INDIRECT(B$65 &amp; $H62)</f>
+        <v>A</v>
+      </c>
+      <c r="C62" t="str" cm="1">
+        <f t="array" aca="1" ref="C62" ca="1">INDIRECT(C$65 &amp; $H62)</f>
+        <v>S</v>
+      </c>
+      <c r="D62" t="str" cm="1">
+        <f t="array" aca="1" ref="D62" ca="1">INDIRECT(D$65 &amp; $H62)</f>
+        <v>D</v>
+      </c>
+      <c r="E62" t="str" cm="1">
+        <f t="array" aca="1" ref="E62" ca="1">INDIRECT(E$65 &amp; $H62)</f>
+        <v>F</v>
+      </c>
+      <c r="F62" t="str" cm="1">
+        <f t="array" aca="1" ref="F62" ca="1">INDIRECT(F$65 &amp; $H62)</f>
+        <v>G</v>
+      </c>
+      <c r="H62">
+        <v>33</v>
+      </c>
+      <c r="J62" t="str">
+        <f ca="1">"('" &amp; B62 &amp; "', '" &amp; C62 &amp; "', '" &amp; D62 &amp; "', '" &amp; E62 &amp; "', '" &amp; F62 &amp; "'),"</f>
+        <v>('A', 'S', 'D', 'F', 'G'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" t="str" cm="1">
+        <f t="array" aca="1" ref="B63" ca="1">INDIRECT(B$65 &amp; $H63)</f>
+        <v>Q</v>
+      </c>
+      <c r="C63" t="str" cm="1">
+        <f t="array" aca="1" ref="C63" ca="1">INDIRECT(C$65 &amp; $H63)</f>
+        <v>W</v>
+      </c>
+      <c r="D63" t="str" cm="1">
+        <f t="array" aca="1" ref="D63" ca="1">INDIRECT(D$65 &amp; $H63)</f>
+        <v>E</v>
+      </c>
+      <c r="E63" t="str" cm="1">
+        <f t="array" aca="1" ref="E63" ca="1">INDIRECT(E$65 &amp; $H63)</f>
+        <v>R</v>
+      </c>
+      <c r="F63" t="str" cm="1">
+        <f t="array" aca="1" ref="F63" ca="1">INDIRECT(F$65 &amp; $H63)</f>
+        <v>T</v>
+      </c>
+      <c r="H63">
+        <v>32</v>
+      </c>
+      <c r="J63" t="str">
+        <f ca="1">"('" &amp; B63 &amp; "', '" &amp; C63 &amp; "', '" &amp; D63 &amp; "', '" &amp; E63 &amp; "', '" &amp; F63 &amp; "'),"</f>
+        <v>('Q', 'W', 'E', 'R', 'T'),</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="L11:U11"/>
+    <mergeCell ref="L16:U16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76880AD6-923F-4869-9647-88E14F7DC881}">
+  <dimension ref="A1:U66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41:J46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="L1" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="L6" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="48">
+        <v>0</v>
+      </c>
+      <c r="B7" s="52">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="49">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15">
+        <v>4</v>
+      </c>
+      <c r="G7" s="49">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+      <c r="I7" s="52">
+        <v>1</v>
+      </c>
+      <c r="J7" s="48">
+        <v>0</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="P7" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="R7" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="S7" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="T7" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="U7" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>0</v>
+      </c>
+      <c r="B8" s="52">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="49">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15">
+        <v>4</v>
+      </c>
+      <c r="G8" s="49">
+        <v>3</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2</v>
+      </c>
+      <c r="I8" s="52">
+        <v>1</v>
+      </c>
+      <c r="J8" s="48">
+        <v>0</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="R8" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="S8" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="T8" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>0</v>
+      </c>
+      <c r="B9" s="52">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="49">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15">
+        <v>4</v>
+      </c>
+      <c r="G9" s="49">
+        <v>3</v>
+      </c>
+      <c r="H9" s="12">
+        <v>2</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1</v>
+      </c>
+      <c r="J9" s="48">
+        <v>0</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="R9" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="S9" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="T9" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="U9" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="L11" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="55">
+        <v>5</v>
+      </c>
+      <c r="B12" s="55">
+        <v>5</v>
+      </c>
+      <c r="C12" s="55">
+        <v>5</v>
+      </c>
+      <c r="D12" s="55">
+        <v>5</v>
+      </c>
+      <c r="E12" s="55">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="P12" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q12" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="R12" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="S12" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="T12" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="U12" s="53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15">
+        <v>4</v>
+      </c>
+      <c r="C13" s="15">
+        <v>4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>4</v>
+      </c>
+      <c r="F13" s="52">
+        <v>1</v>
+      </c>
+      <c r="G13" s="52">
+        <v>1</v>
+      </c>
+      <c r="H13" s="52">
+        <v>1</v>
+      </c>
+      <c r="I13" s="52">
+        <v>1</v>
+      </c>
+      <c r="J13" s="52">
+        <v>1</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="O13" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="P13" s="51" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q13" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="S13" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="T13" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="U13" s="50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
+        <v>3</v>
+      </c>
+      <c r="B14" s="49">
+        <v>3</v>
+      </c>
+      <c r="C14" s="49">
+        <v>3</v>
+      </c>
+      <c r="D14" s="49">
+        <v>3</v>
+      </c>
+      <c r="E14" s="49">
+        <v>3</v>
+      </c>
+      <c r="F14" s="48">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48">
+        <v>0</v>
+      </c>
+      <c r="H14" s="48">
+        <v>0</v>
+      </c>
+      <c r="I14" s="48">
+        <v>0</v>
+      </c>
+      <c r="J14" s="48">
+        <v>0</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="M14" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="O14" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="P14" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q14" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="R14" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="S14" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="T14" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="U14" s="46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="L16" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="str">
+        <f>A2 &amp; " (" &amp; A7 &amp; ", " &amp; A12 &amp; ")"</f>
+        <v>Q (0, 5)</v>
+      </c>
+      <c r="B17" s="9" t="str">
+        <f>B2 &amp; " (" &amp; B7 &amp; ", " &amp; B12 &amp; ")"</f>
+        <v>W (1, 5)</v>
+      </c>
+      <c r="C17" s="9" t="str">
+        <f>C2 &amp; " (" &amp; C7 &amp; ", " &amp; C12 &amp; ")"</f>
+        <v>E (2, 5)</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <f>D2 &amp; " (" &amp; D7 &amp; ", " &amp; D12 &amp; ")"</f>
+        <v>R (3, 5)</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f>E2 &amp; " (" &amp; E7 &amp; ", " &amp; E12 &amp; ")"</f>
+        <v>T (4, 5)</v>
+      </c>
+      <c r="F17" s="9" t="str">
+        <f>F2 &amp; " (" &amp; F7 &amp; ", " &amp; F12 &amp; ")"</f>
+        <v>Y (4, 2)</v>
+      </c>
+      <c r="G17" s="9" t="str">
+        <f>G2 &amp; " (" &amp; G7 &amp; ", " &amp; G12 &amp; ")"</f>
+        <v>U (3, 2)</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <f>H2 &amp; " (" &amp; H7 &amp; ", " &amp; H12 &amp; ")"</f>
+        <v>I (2, 2)</v>
+      </c>
+      <c r="I17" s="9" t="str">
+        <f>I2 &amp; " (" &amp; I7 &amp; ", " &amp; I12 &amp; ")"</f>
+        <v>O (1, 2)</v>
+      </c>
+      <c r="J17" s="9" t="str">
+        <f>J2 &amp; " (" &amp; J7 &amp; ", " &amp; J12 &amp; ")"</f>
+        <v>P (0, 2)</v>
+      </c>
+      <c r="L17" s="9" t="str">
+        <f>L2 &amp; " (" &amp; L7 &amp; ", " &amp; L12 &amp; ")"</f>
+        <v>Q (GP1, GP22)</v>
+      </c>
+      <c r="M17" s="9" t="str">
+        <f>M2 &amp; " (" &amp; M7 &amp; ", " &amp; M12 &amp; ")"</f>
+        <v>W (GP2, GP22)</v>
+      </c>
+      <c r="N17" s="9" t="str">
+        <f>N2 &amp; " (" &amp; N7 &amp; ", " &amp; N12 &amp; ")"</f>
+        <v>E (GP3, GP22)</v>
+      </c>
+      <c r="O17" s="9" t="str">
+        <f>O2 &amp; " (" &amp; O7 &amp; ", " &amp; O12 &amp; ")"</f>
+        <v>R (GP4, GP22)</v>
+      </c>
+      <c r="P17" s="9" t="str">
+        <f>P2 &amp; " (" &amp; P7 &amp; ", " &amp; P12 &amp; ")"</f>
+        <v>T (GP5, GP22)</v>
+      </c>
+      <c r="Q17" s="9" t="str">
+        <f>Q2 &amp; " (" &amp; Q7 &amp; ", " &amp; Q12 &amp; ")"</f>
+        <v>Y (GP5, GP15)</v>
+      </c>
+      <c r="R17" s="9" t="str">
+        <f>R2 &amp; " (" &amp; R7 &amp; ", " &amp; R12 &amp; ")"</f>
+        <v>U (GP4, GP15)</v>
+      </c>
+      <c r="S17" s="9" t="str">
+        <f>S2 &amp; " (" &amp; S7 &amp; ", " &amp; S12 &amp; ")"</f>
+        <v>I (GP3, GP15)</v>
+      </c>
+      <c r="T17" s="9" t="str">
+        <f>T2 &amp; " (" &amp; T7 &amp; ", " &amp; T12 &amp; ")"</f>
+        <v>O (GP2, GP15)</v>
+      </c>
+      <c r="U17" s="9" t="str">
+        <f>U2 &amp; " (" &amp; U7 &amp; ", " &amp; U12 &amp; ")"</f>
+        <v>P (GP1, GP15)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="str">
+        <f>A3 &amp; " (" &amp; A8 &amp; ", " &amp; A13 &amp; ")"</f>
+        <v>A (0, 4)</v>
+      </c>
+      <c r="B18" s="9" t="str">
+        <f>B3 &amp; " (" &amp; B8 &amp; ", " &amp; B13 &amp; ")"</f>
+        <v>S (1, 4)</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f>C3 &amp; " (" &amp; C8 &amp; ", " &amp; C13 &amp; ")"</f>
+        <v>D (2, 4)</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <f>D3 &amp; " (" &amp; D8 &amp; ", " &amp; D13 &amp; ")"</f>
+        <v>F (3, 4)</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f>E3 &amp; " (" &amp; E8 &amp; ", " &amp; E13 &amp; ")"</f>
+        <v>G (4, 4)</v>
+      </c>
+      <c r="F18" s="9" t="str">
+        <f>F3 &amp; " (" &amp; F8 &amp; ", " &amp; F13 &amp; ")"</f>
+        <v>H (4, 1)</v>
+      </c>
+      <c r="G18" s="9" t="str">
+        <f>G3 &amp; " (" &amp; G8 &amp; ", " &amp; G13 &amp; ")"</f>
+        <v>J (3, 1)</v>
+      </c>
+      <c r="H18" s="9" t="str">
+        <f>H3 &amp; " (" &amp; H8 &amp; ", " &amp; H13 &amp; ")"</f>
+        <v>K (2, 1)</v>
+      </c>
+      <c r="I18" s="9" t="str">
+        <f>I3 &amp; " (" &amp; I8 &amp; ", " &amp; I13 &amp; ")"</f>
+        <v>L (1, 1)</v>
+      </c>
+      <c r="J18" s="9" t="str">
+        <f>J3 &amp; " (" &amp; J8 &amp; ", " &amp; J13 &amp; ")"</f>
+        <v>DEL (0, 1)</v>
+      </c>
+      <c r="L18" s="9" t="str">
+        <f>L3 &amp; " (" &amp; L8 &amp; ", " &amp; L13 &amp; ")"</f>
+        <v>A (GP1, GP7)</v>
+      </c>
+      <c r="M18" s="9" t="str">
+        <f>M3 &amp; " (" &amp; M8 &amp; ", " &amp; M13 &amp; ")"</f>
+        <v>S (GP2, GP7)</v>
+      </c>
+      <c r="N18" s="9" t="str">
+        <f>N3 &amp; " (" &amp; N8 &amp; ", " &amp; N13 &amp; ")"</f>
+        <v>D (GP3, GP7)</v>
+      </c>
+      <c r="O18" s="9" t="str">
+        <f>O3 &amp; " (" &amp; O8 &amp; ", " &amp; O13 &amp; ")"</f>
+        <v>F (GP4, GP7)</v>
+      </c>
+      <c r="P18" s="9" t="str">
+        <f>P3 &amp; " (" &amp; P8 &amp; ", " &amp; P13 &amp; ")"</f>
+        <v>G (GP5, GP7)</v>
+      </c>
+      <c r="Q18" s="9" t="str">
+        <f>Q3 &amp; " (" &amp; Q8 &amp; ", " &amp; Q13 &amp; ")"</f>
+        <v>H (GP5, GP9)</v>
+      </c>
+      <c r="R18" s="9" t="str">
+        <f>R3 &amp; " (" &amp; R8 &amp; ", " &amp; R13 &amp; ")"</f>
+        <v>J (GP4, GP9)</v>
+      </c>
+      <c r="S18" s="9" t="str">
+        <f>S3 &amp; " (" &amp; S8 &amp; ", " &amp; S13 &amp; ")"</f>
+        <v>K (GP3, GP9)</v>
+      </c>
+      <c r="T18" s="9" t="str">
+        <f>T3 &amp; " (" &amp; T8 &amp; ", " &amp; T13 &amp; ")"</f>
+        <v>L (GP2, GP9)</v>
+      </c>
+      <c r="U18" s="9" t="str">
+        <f>U3 &amp; " (" &amp; U8 &amp; ", " &amp; U13 &amp; ")"</f>
+        <v>DEL (GP1, GP9)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="str">
+        <f>A4 &amp; " (" &amp; A9 &amp; ", " &amp; A14 &amp; ")"</f>
+        <v>ALT (0, 3)</v>
+      </c>
+      <c r="B19" s="9" t="str">
+        <f>B4 &amp; " (" &amp; B9 &amp; ", " &amp; B14 &amp; ")"</f>
+        <v>Z (1, 3)</v>
+      </c>
+      <c r="C19" s="9" t="str">
+        <f>C4 &amp; " (" &amp; C9 &amp; ", " &amp; C14 &amp; ")"</f>
+        <v>X (2, 3)</v>
+      </c>
+      <c r="D19" s="9" t="str">
+        <f>D4 &amp; " (" &amp; D9 &amp; ", " &amp; D14 &amp; ")"</f>
+        <v>C (3, 3)</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f>E4 &amp; " (" &amp; E9 &amp; ", " &amp; E14 &amp; ")"</f>
+        <v>V (4, 3)</v>
+      </c>
+      <c r="F19" s="9" t="str">
+        <f>F4 &amp; " (" &amp; F9 &amp; ", " &amp; F14 &amp; ")"</f>
+        <v>B (4, 0)</v>
+      </c>
+      <c r="G19" s="9" t="str">
+        <f>G4 &amp; " (" &amp; G9 &amp; ", " &amp; G14 &amp; ")"</f>
+        <v>N (3, 0)</v>
+      </c>
+      <c r="H19" s="9" t="str">
+        <f>H4 &amp; " (" &amp; H9 &amp; ", " &amp; H14 &amp; ")"</f>
+        <v>M (2, 0)</v>
+      </c>
+      <c r="I19" s="9" t="str">
+        <f>I4 &amp; " (" &amp; I9 &amp; ", " &amp; I14 &amp; ")"</f>
+        <v>SPC (1, 0)</v>
+      </c>
+      <c r="J19" s="9" t="str">
+        <f>J4 &amp; " (" &amp; J9 &amp; ", " &amp; J14 &amp; ")"</f>
+        <v>ENT (0, 0)</v>
+      </c>
+      <c r="L19" s="9" t="str">
+        <f>L4 &amp; " (" &amp; L9 &amp; ", " &amp; L14 &amp; ")"</f>
+        <v>ALT (GP1, GP8)</v>
+      </c>
+      <c r="M19" s="9" t="str">
+        <f>M4 &amp; " (" &amp; M9 &amp; ", " &amp; M14 &amp; ")"</f>
+        <v>Z (GP2, GP8)</v>
+      </c>
+      <c r="N19" s="9" t="str">
+        <f>N4 &amp; " (" &amp; N9 &amp; ", " &amp; N14 &amp; ")"</f>
+        <v>X (GP3, GP8)</v>
+      </c>
+      <c r="O19" s="9" t="str">
+        <f>O4 &amp; " (" &amp; O9 &amp; ", " &amp; O14 &amp; ")"</f>
+        <v>C (GP4, GP8)</v>
+      </c>
+      <c r="P19" s="9" t="str">
+        <f>P4 &amp; " (" &amp; P9 &amp; ", " &amp; P14 &amp; ")"</f>
+        <v>V (GP5, GP8)</v>
+      </c>
+      <c r="Q19" s="9" t="str">
+        <f>Q4 &amp; " (" &amp; Q9 &amp; ", " &amp; Q14 &amp; ")"</f>
+        <v>B (GP5, GP6)</v>
+      </c>
+      <c r="R19" s="9" t="str">
+        <f>R4 &amp; " (" &amp; R9 &amp; ", " &amp; R14 &amp; ")"</f>
+        <v>N (GP4, GP6)</v>
+      </c>
+      <c r="S19" s="9" t="str">
+        <f>S4 &amp; " (" &amp; S9 &amp; ", " &amp; S14 &amp; ")"</f>
+        <v>M (GP3, GP6)</v>
+      </c>
+      <c r="T19" s="9" t="str">
+        <f>T4 &amp; " (" &amp; T9 &amp; ", " &amp; T14 &amp; ")"</f>
+        <v>SPC (GP2, GP6)</v>
+      </c>
+      <c r="U19" s="9" t="str">
+        <f>U4 &amp; " (" &amp; U9 &amp; ", " &amp; U14 &amp; ")"</f>
+        <v>ENT (GP1, GP6)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" s="57">
+        <v>0</v>
+      </c>
+      <c r="C22" s="57">
+        <v>1</v>
+      </c>
+      <c r="D22" s="57">
+        <v>2</v>
+      </c>
+      <c r="E22" s="57">
+        <v>3</v>
+      </c>
+      <c r="F22" s="57">
+        <v>4</v>
+      </c>
+      <c r="G22" s="57">
+        <v>4</v>
+      </c>
+      <c r="H22" s="57">
+        <v>3</v>
+      </c>
+      <c r="I22" s="57">
+        <v>2</v>
+      </c>
+      <c r="J22" s="57">
+        <v>1</v>
+      </c>
+      <c r="K22" s="57">
+        <v>0</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="57">
+        <v>5</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="L23" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="L24" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="57">
+        <v>3</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="L25" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="57">
+        <v>0</v>
+      </c>
+      <c r="C28" s="57">
+        <v>1</v>
+      </c>
+      <c r="D28" s="57">
+        <v>2</v>
+      </c>
+      <c r="E28" s="57">
+        <v>3</v>
+      </c>
+      <c r="F28" s="57">
+        <v>4</v>
+      </c>
+      <c r="G28" s="57">
+        <v>4</v>
+      </c>
+      <c r="H28" s="57">
+        <v>3</v>
+      </c>
+      <c r="I28" s="57">
+        <v>2</v>
+      </c>
+      <c r="J28" s="57">
+        <v>1</v>
+      </c>
+      <c r="K28" s="57">
+        <v>0</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="57">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9">
+        <v>3</v>
+      </c>
+      <c r="E29" s="9">
+        <v>4</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5</v>
+      </c>
+      <c r="G29" s="9">
+        <v>6</v>
+      </c>
+      <c r="H29" s="9">
+        <v>7</v>
+      </c>
+      <c r="I29" s="9">
+        <v>8</v>
+      </c>
+      <c r="J29" s="9">
+        <v>9</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="57">
+        <v>4</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="L30" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="57">
+        <v>3</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="L31" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B34" s="57">
+        <v>0</v>
+      </c>
+      <c r="C34" s="57">
+        <v>1</v>
+      </c>
+      <c r="D34" s="57">
+        <v>2</v>
+      </c>
+      <c r="E34" s="57">
+        <v>3</v>
+      </c>
+      <c r="F34" s="57">
+        <v>4</v>
+      </c>
+      <c r="G34" s="57">
+        <v>4</v>
+      </c>
+      <c r="H34" s="57">
+        <v>3</v>
+      </c>
+      <c r="I34" s="57">
+        <v>2</v>
+      </c>
+      <c r="J34" s="57">
+        <v>1</v>
+      </c>
+      <c r="K34" s="57">
+        <v>0</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="57">
+        <v>5</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="L35" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="57">
+        <v>4</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="L36" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="57">
+        <v>3</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="L37" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40" s="56">
+        <v>11</v>
+      </c>
+      <c r="C40" s="56">
+        <v>10</v>
+      </c>
+      <c r="D40" s="56">
+        <v>9</v>
+      </c>
+      <c r="E40" s="56">
+        <v>8</v>
+      </c>
+      <c r="F40" s="56">
+        <v>7</v>
+      </c>
+      <c r="H40" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="58">
+        <v>25</v>
+      </c>
+      <c r="B41" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">INDIRECT(ADDRESS($A41,B$40))</f>
+        <v>ent</v>
+      </c>
+      <c r="C41" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">INDIRECT(ADDRESS($A41,C$40))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D41" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D41" ca="1">INDIRECT(ADDRESS($A41,D$40))</f>
+        <v>m</v>
+      </c>
+      <c r="E41" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E41" ca="1">INDIRECT(ADDRESS($A41,E$40))</f>
+        <v>n</v>
+      </c>
+      <c r="F41" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F41" ca="1">INDIRECT(ADDRESS($A41,F$40))</f>
+        <v>b</v>
+      </c>
+      <c r="H41" s="60" t="str">
+        <f ca="1">"('" &amp; B41 &amp; "', '" &amp; C41 &amp; "', '" &amp; D41 &amp; "', '" &amp; E41 &amp; "', '" &amp; F41 &amp; "'),"</f>
+        <v>('ent', ' ', 'm', 'n', 'b'),</v>
+      </c>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="58">
+        <v>24</v>
+      </c>
+      <c r="B42" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">INDIRECT(ADDRESS($A42,B$40))</f>
+        <v>bsp</v>
+      </c>
+      <c r="C42" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">INDIRECT(ADDRESS($A42,C$40))</f>
+        <v>l</v>
+      </c>
+      <c r="D42" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D42" ca="1">INDIRECT(ADDRESS($A42,D$40))</f>
+        <v>k</v>
+      </c>
+      <c r="E42" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E42" ca="1">INDIRECT(ADDRESS($A42,E$40))</f>
+        <v>j</v>
+      </c>
+      <c r="F42" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F42" ca="1">INDIRECT(ADDRESS($A42,F$40))</f>
+        <v>h</v>
+      </c>
+      <c r="H42" s="60" t="str">
+        <f t="shared" ref="H42:H46" ca="1" si="0">"('" &amp; B42 &amp; "', '" &amp; C42 &amp; "', '" &amp; D42 &amp; "', '" &amp; E42 &amp; "', '" &amp; F42 &amp; "'),"</f>
+        <v>('bsp', 'l', 'k', 'j', 'h'),</v>
+      </c>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="58">
+        <v>23</v>
+      </c>
+      <c r="B43" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">INDIRECT(ADDRESS($A43,B$40))</f>
+        <v>p</v>
+      </c>
+      <c r="C43" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">INDIRECT(ADDRESS($A43,C$40))</f>
+        <v>o</v>
+      </c>
+      <c r="D43" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D43" ca="1">INDIRECT(ADDRESS($A43,D$40))</f>
+        <v>i</v>
+      </c>
+      <c r="E43" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E43" ca="1">INDIRECT(ADDRESS($A43,E$40))</f>
+        <v>u</v>
+      </c>
+      <c r="F43" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F43" ca="1">INDIRECT(ADDRESS($A43,F$40))</f>
+        <v>y</v>
+      </c>
+      <c r="H43" s="60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>('p', 'o', 'i', 'u', 'y'),</v>
+      </c>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="58">
+        <v>25</v>
+      </c>
+      <c r="B44" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">INDIRECT(ADDRESS($A44,B$47))</f>
+        <v>alt</v>
+      </c>
+      <c r="C44" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C44" ca="1">INDIRECT(ADDRESS($A44,C$47))</f>
+        <v>z</v>
+      </c>
+      <c r="D44" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D44" ca="1">INDIRECT(ADDRESS($A44,D$47))</f>
+        <v>x</v>
+      </c>
+      <c r="E44" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E44" ca="1">INDIRECT(ADDRESS($A44,E$47))</f>
+        <v>c</v>
+      </c>
+      <c r="F44" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F44" ca="1">INDIRECT(ADDRESS($A44,F$47))</f>
+        <v>v</v>
+      </c>
+      <c r="H44" s="60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>('alt', 'z', 'x', 'c', 'v'),</v>
+      </c>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="58">
+        <v>24</v>
+      </c>
+      <c r="B45" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">INDIRECT(ADDRESS($A45,B$47))</f>
+        <v>a</v>
+      </c>
+      <c r="C45" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C45" ca="1">INDIRECT(ADDRESS($A45,C$47))</f>
+        <v>s</v>
+      </c>
+      <c r="D45" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D45" ca="1">INDIRECT(ADDRESS($A45,D$47))</f>
+        <v>d</v>
+      </c>
+      <c r="E45" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E45" ca="1">INDIRECT(ADDRESS($A45,E$47))</f>
+        <v>f</v>
+      </c>
+      <c r="F45" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F45" ca="1">INDIRECT(ADDRESS($A45,F$47))</f>
+        <v>g</v>
+      </c>
+      <c r="H45" s="60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>('a', 's', 'd', 'f', 'g'),</v>
+      </c>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="58">
+        <v>23</v>
+      </c>
+      <c r="B46" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">INDIRECT(ADDRESS($A46,B$47))</f>
+        <v>q</v>
+      </c>
+      <c r="C46" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C46" ca="1">INDIRECT(ADDRESS($A46,C$47))</f>
+        <v>w</v>
+      </c>
+      <c r="D46" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D46" ca="1">INDIRECT(ADDRESS($A46,D$47))</f>
+        <v>e</v>
+      </c>
+      <c r="E46" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E46" ca="1">INDIRECT(ADDRESS($A46,E$47))</f>
+        <v>r</v>
+      </c>
+      <c r="F46" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F46" ca="1">INDIRECT(ADDRESS($A46,F$47))</f>
+        <v>t</v>
+      </c>
+      <c r="H46" s="60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>('q', 'w', 'e', 'r', 't'),</v>
+      </c>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="B47" s="56">
+        <v>2</v>
+      </c>
+      <c r="C47" s="56">
+        <v>3</v>
+      </c>
+      <c r="D47" s="56">
+        <v>4</v>
+      </c>
+      <c r="E47" s="56">
+        <v>5</v>
+      </c>
+      <c r="F47" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="B49" s="56">
+        <v>11</v>
+      </c>
+      <c r="C49" s="56">
+        <v>10</v>
+      </c>
+      <c r="D49" s="56">
+        <v>9</v>
+      </c>
+      <c r="E49" s="56">
+        <v>8</v>
+      </c>
+      <c r="F49" s="56">
+        <v>7</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="58">
+        <v>31</v>
+      </c>
+      <c r="B50" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">INDIRECT(ADDRESS($A50,B$49))</f>
+        <v>rt</v>
+      </c>
+      <c r="C50" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">INDIRECT(ADDRESS($A50,C$49))</f>
+        <v>,</v>
+      </c>
+      <c r="D50" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D50" ca="1">INDIRECT(ADDRESS($A50,D$49))</f>
+        <v>:</v>
+      </c>
+      <c r="E50" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E50" ca="1">INDIRECT(ADDRESS($A50,E$49))</f>
+        <v>;</v>
+      </c>
+      <c r="F50" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F50" ca="1">INDIRECT(ADDRESS($A50,F$49))</f>
+        <v>"</v>
+      </c>
+      <c r="H50" s="60" t="str">
+        <f ca="1">"('" &amp; B50 &amp; "', '" &amp; C50 &amp; "', '" &amp; D50 &amp; "', '" &amp; E50 &amp; "', '" &amp; F50 &amp; "'),"</f>
+        <v>('rt', ',', ':', ';', '"'),</v>
+      </c>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="58">
+        <v>30</v>
+      </c>
+      <c r="B51" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B51" ca="1">INDIRECT(ADDRESS($A51,B$49))</f>
+        <v>lt</v>
+      </c>
+      <c r="C51" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C51" ca="1">INDIRECT(ADDRESS($A51,C$49))</f>
+        <v>-</v>
+      </c>
+      <c r="D51" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D51" ca="1">INDIRECT(ADDRESS($A51,D$49))</f>
+        <v>*</v>
+      </c>
+      <c r="E51" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E51" ca="1">INDIRECT(ADDRESS($A51,E$49))</f>
+        <v>&amp;</v>
+      </c>
+      <c r="F51" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F51" ca="1">INDIRECT(ADDRESS($A51,F$49))</f>
+        <v>+</v>
+      </c>
+      <c r="H51" s="60" t="str">
+        <f t="shared" ref="H51:H55" ca="1" si="1">"('" &amp; B51 &amp; "', '" &amp; C51 &amp; "', '" &amp; D51 &amp; "', '" &amp; E51 &amp; "', '" &amp; F51 &amp; "'),"</f>
+        <v>('lt', '-', '*', '&amp;', '+'),</v>
+      </c>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="58">
+        <v>29</v>
+      </c>
+      <c r="B52" s="9" cm="1">
+        <f t="array" aca="1" ref="B52" ca="1">INDIRECT(ADDRESS($A52,B$49))</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="9" cm="1">
+        <f t="array" aca="1" ref="C52" ca="1">INDIRECT(ADDRESS($A52,C$49))</f>
+        <v>9</v>
+      </c>
+      <c r="D52" s="9" cm="1">
+        <f t="array" aca="1" ref="D52" ca="1">INDIRECT(ADDRESS($A52,D$49))</f>
+        <v>8</v>
+      </c>
+      <c r="E52" s="9" cm="1">
+        <f t="array" aca="1" ref="E52" ca="1">INDIRECT(ADDRESS($A52,E$49))</f>
+        <v>7</v>
+      </c>
+      <c r="F52" s="9" cm="1">
+        <f t="array" aca="1" ref="F52" ca="1">INDIRECT(ADDRESS($A52,F$49))</f>
+        <v>6</v>
+      </c>
+      <c r="H52" s="60" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>('0', '9', '8', '7', '6'),</v>
+      </c>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="58">
+        <v>31</v>
+      </c>
+      <c r="B53" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B53" ca="1">INDIRECT(ADDRESS($A53,B$56))</f>
+        <v>alt</v>
+      </c>
+      <c r="C53" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C53" ca="1">INDIRECT(ADDRESS($A53,C$56))</f>
+        <v>(</v>
+      </c>
+      <c r="D53" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D53" ca="1">INDIRECT(ADDRESS($A53,D$56))</f>
+        <v>)</v>
+      </c>
+      <c r="E53" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E53" ca="1">INDIRECT(ADDRESS($A53,E$56))</f>
+        <v>?</v>
+      </c>
+      <c r="F53" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F53" ca="1">INDIRECT(ADDRESS($A53,F$56))</f>
+        <v>/</v>
+      </c>
+      <c r="H53" s="60" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>('alt', '(', ')', '?', '/'),</v>
+      </c>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="58">
+        <v>30</v>
+      </c>
+      <c r="B54" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B54" ca="1">INDIRECT(ADDRESS($A54,B$56))</f>
+        <v>!</v>
+      </c>
+      <c r="C54" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C54" ca="1">INDIRECT(ADDRESS($A54,C$56))</f>
+        <v>@</v>
+      </c>
+      <c r="D54" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D54" ca="1">INDIRECT(ADDRESS($A54,D$56))</f>
+        <v>#</v>
+      </c>
+      <c r="E54" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E54" ca="1">INDIRECT(ADDRESS($A54,E$56))</f>
+        <v>$</v>
+      </c>
+      <c r="F54" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F54" ca="1">INDIRECT(ADDRESS($A54,F$56))</f>
+        <v>%</v>
+      </c>
+      <c r="H54" s="60" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>('!', '@', '#', '$', '%'),</v>
+      </c>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="58">
+        <v>29</v>
+      </c>
+      <c r="B55" s="9" cm="1">
+        <f t="array" aca="1" ref="B55" ca="1">INDIRECT(ADDRESS($A55,B$56))</f>
+        <v>1</v>
+      </c>
+      <c r="C55" s="9" cm="1">
+        <f t="array" aca="1" ref="C55" ca="1">INDIRECT(ADDRESS($A55,C$56))</f>
+        <v>2</v>
+      </c>
+      <c r="D55" s="9" cm="1">
+        <f t="array" aca="1" ref="D55" ca="1">INDIRECT(ADDRESS($A55,D$56))</f>
+        <v>3</v>
+      </c>
+      <c r="E55" s="9" cm="1">
+        <f t="array" aca="1" ref="E55" ca="1">INDIRECT(ADDRESS($A55,E$56))</f>
+        <v>4</v>
+      </c>
+      <c r="F55" s="9" cm="1">
+        <f t="array" aca="1" ref="F55" ca="1">INDIRECT(ADDRESS($A55,F$56))</f>
+        <v>5</v>
+      </c>
+      <c r="H55" s="60" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>('1', '2', '3', '4', '5'),</v>
+      </c>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="B56" s="56">
+        <v>2</v>
+      </c>
+      <c r="C56" s="56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="56">
+        <v>4</v>
+      </c>
+      <c r="E56" s="56">
+        <v>5</v>
+      </c>
+      <c r="F56" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="57" t="s">
+        <v>402</v>
+      </c>
+      <c r="B59" s="56">
+        <v>11</v>
+      </c>
+      <c r="C59" s="56">
+        <v>10</v>
+      </c>
+      <c r="D59" s="56">
+        <v>9</v>
+      </c>
+      <c r="E59" s="56">
+        <v>8</v>
+      </c>
+      <c r="F59" s="56">
+        <v>7</v>
+      </c>
+      <c r="H59" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="58">
+        <v>37</v>
+      </c>
+      <c r="B60" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B60" ca="1">INDIRECT(ADDRESS($A60,B$59))</f>
+        <v>dn</v>
+      </c>
+      <c r="C60" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C60" ca="1">INDIRECT(ADDRESS($A60,C$59))</f>
+        <v>.</v>
+      </c>
+      <c r="D60" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D60" ca="1">INDIRECT(ADDRESS($A60,D$59))</f>
+        <v>M</v>
+      </c>
+      <c r="E60" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E60" ca="1">INDIRECT(ADDRESS($A60,E$59))</f>
+        <v>N</v>
+      </c>
+      <c r="F60" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F60" ca="1">INDIRECT(ADDRESS($A60,F$59))</f>
+        <v>B</v>
+      </c>
+      <c r="H60" s="60" t="str">
+        <f ca="1">"('" &amp; B60 &amp; "', '" &amp; C60 &amp; "', '" &amp; D60 &amp; "', '" &amp; E60 &amp; "', '" &amp; F60 &amp; "'),"</f>
+        <v>('dn', '.', 'M', 'N', 'B'),</v>
+      </c>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="58">
+        <v>36</v>
+      </c>
+      <c r="B61" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B61" ca="1">INDIRECT(ADDRESS($A61,B$59))</f>
+        <v>up</v>
+      </c>
+      <c r="C61" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C61" ca="1">INDIRECT(ADDRESS($A61,C$59))</f>
+        <v>L</v>
+      </c>
+      <c r="D61" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D61" ca="1">INDIRECT(ADDRESS($A61,D$59))</f>
+        <v>K</v>
+      </c>
+      <c r="E61" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E61" ca="1">INDIRECT(ADDRESS($A61,E$59))</f>
+        <v>J</v>
+      </c>
+      <c r="F61" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F61" ca="1">INDIRECT(ADDRESS($A61,F$59))</f>
+        <v>H</v>
+      </c>
+      <c r="H61" s="60" t="str">
+        <f t="shared" ref="H61:H65" ca="1" si="2">"('" &amp; B61 &amp; "', '" &amp; C61 &amp; "', '" &amp; D61 &amp; "', '" &amp; E61 &amp; "', '" &amp; F61 &amp; "'),"</f>
+        <v>('up', 'L', 'K', 'J', 'H'),</v>
+      </c>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="58">
+        <v>35</v>
+      </c>
+      <c r="B62" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B62" ca="1">INDIRECT(ADDRESS($A62,B$59))</f>
+        <v>P</v>
+      </c>
+      <c r="C62" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C62" ca="1">INDIRECT(ADDRESS($A62,C$59))</f>
+        <v>O</v>
+      </c>
+      <c r="D62" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D62" ca="1">INDIRECT(ADDRESS($A62,D$59))</f>
+        <v>I</v>
+      </c>
+      <c r="E62" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E62" ca="1">INDIRECT(ADDRESS($A62,E$59))</f>
+        <v>U</v>
+      </c>
+      <c r="F62" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F62" ca="1">INDIRECT(ADDRESS($A62,F$59))</f>
+        <v>Y</v>
+      </c>
+      <c r="H62" s="60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>('P', 'O', 'I', 'U', 'Y'),</v>
+      </c>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="58">
+        <v>37</v>
+      </c>
+      <c r="B63" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B63" ca="1">INDIRECT(ADDRESS($A63,B$66))</f>
+        <v>alt</v>
+      </c>
+      <c r="C63" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C63" ca="1">INDIRECT(ADDRESS($A63,C$66))</f>
+        <v>Z</v>
+      </c>
+      <c r="D63" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D63" ca="1">INDIRECT(ADDRESS($A63,D$66))</f>
+        <v>X</v>
+      </c>
+      <c r="E63" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E63" ca="1">INDIRECT(ADDRESS($A63,E$66))</f>
+        <v>C</v>
+      </c>
+      <c r="F63" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F63" ca="1">INDIRECT(ADDRESS($A63,F$66))</f>
+        <v>V</v>
+      </c>
+      <c r="H63" s="60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>('alt', 'Z', 'X', 'C', 'V'),</v>
+      </c>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="58">
+        <v>36</v>
+      </c>
+      <c r="B64" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B64" ca="1">INDIRECT(ADDRESS($A64,B$66))</f>
+        <v>A</v>
+      </c>
+      <c r="C64" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C64" ca="1">INDIRECT(ADDRESS($A64,C$66))</f>
+        <v>S</v>
+      </c>
+      <c r="D64" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D64" ca="1">INDIRECT(ADDRESS($A64,D$66))</f>
+        <v>D</v>
+      </c>
+      <c r="E64" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E64" ca="1">INDIRECT(ADDRESS($A64,E$66))</f>
+        <v>F</v>
+      </c>
+      <c r="F64" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F64" ca="1">INDIRECT(ADDRESS($A64,F$66))</f>
+        <v>G</v>
+      </c>
+      <c r="H64" s="60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>('A', 'S', 'D', 'F', 'G'),</v>
+      </c>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="58">
+        <v>35</v>
+      </c>
+      <c r="B65" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="B65" ca="1">INDIRECT(ADDRESS($A65,B$66))</f>
+        <v>Q</v>
+      </c>
+      <c r="C65" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="C65" ca="1">INDIRECT(ADDRESS($A65,C$66))</f>
+        <v>W</v>
+      </c>
+      <c r="D65" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="D65" ca="1">INDIRECT(ADDRESS($A65,D$66))</f>
+        <v>E</v>
+      </c>
+      <c r="E65" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="E65" ca="1">INDIRECT(ADDRESS($A65,E$66))</f>
+        <v>R</v>
+      </c>
+      <c r="F65" s="9" t="str" cm="1">
+        <f t="array" aca="1" ref="F65" ca="1">INDIRECT(ADDRESS($A65,F$66))</f>
+        <v>T</v>
+      </c>
+      <c r="H65" s="60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>('Q', 'W', 'E', 'R', 'T'),</v>
+      </c>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="57" t="s">
+        <v>401</v>
+      </c>
+      <c r="B66" s="56">
+        <v>2</v>
+      </c>
+      <c r="C66" s="56">
+        <v>3</v>
+      </c>
+      <c r="D66" s="56">
+        <v>4</v>
+      </c>
+      <c r="E66" s="56">
+        <v>5</v>
+      </c>
+      <c r="F66" s="56">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="L16:U16"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="L11:U11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BACDCB-B405-42B0-9924-03C80370F41D}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33">
+        <v>3</v>
+      </c>
+      <c r="E1" s="33">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33">
+        <v>5</v>
+      </c>
+      <c r="G1" s="33">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33">
+        <v>7</v>
+      </c>
+      <c r="I1" s="33">
+        <v>8</v>
+      </c>
+      <c r="J1" s="33">
+        <v>9</v>
+      </c>
+      <c r="K1" s="33">
+        <v>10</v>
+      </c>
+      <c r="L1" s="33">
+        <v>11</v>
+      </c>
+      <c r="M1" s="33">
+        <v>12</v>
+      </c>
+      <c r="N1" s="33">
+        <v>13</v>
+      </c>
+      <c r="O1" s="33">
+        <v>14</v>
+      </c>
+      <c r="P1" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>13121100</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3020101</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="7">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>21.620999999999999</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G5" t="s">
+        <v>406</v>
+      </c>
+      <c r="H5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A3023C-8374-4359-AA64-F366FAE9EF28}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,11 +7863,1944 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1FF37F-9911-4703-B2DE-35103DA74C3A}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E46" si="0">IF(OR(C2="module",C2="function",C2="tuple",C2="list",C2="dict"),"Yes","")</f>
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F46" si="1">IF(AND(D2="",E2=""),"Yes","")</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G46" si="2">COUNTIF(D2:F2,"Yes")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G46">
+    <sortCondition ref="D2:D46"/>
+    <sortCondition ref="E2:E46"/>
+    <sortCondition ref="F2:F46"/>
+    <sortCondition ref="A2:A46"/>
+    <sortCondition ref="C2:C46"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454633AE-81BB-4B5A-9308-082C89A3D61E}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6544A9A2-3E3D-446A-98C2-CE08A8B2B5F9}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="9">
+        <v>14</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9">
+        <v>20</v>
+      </c>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4095BA15-0604-4D03-AB13-CCFB96E3109C}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2609,7 +10609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4CD7A2-8391-4ADB-A590-3104D9FECDC1}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -2910,7 +10910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A172F3-57A4-4A91-B3C8-01D30D1CD003}">
   <dimension ref="A1:W19"/>
   <sheetViews>
@@ -2949,29 +10949,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3662,14 +11662,14 @@
       <c r="K13" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
@@ -3714,7 +11714,7 @@
         <f>VLOOKUP($B14,$B$3:$N$10,12,FALSE)</f>
         <v>0x04</v>
       </c>
-      <c r="L14" s="19" t="str">
+      <c r="L14" s="40" t="str">
         <f>"    if profile == " &amp; A14 &amp; ":" &amp; CHAR(13) &amp; CHAR(10) &amp;
 "        modemPreset = (" &amp; I14 &amp; ", " &amp; J14 &amp; ", " &amp; K14 &amp; ")  # Bw = " &amp; E14 &amp; "kHz, Cr = " &amp; F14 &amp; "," &amp; CHAR(13) &amp; CHAR(10) &amp;
 "        #   Sf = " &amp; G14 &amp; "chips/symbol, CRC on." &amp; CHAR(13) &amp; CHAR(10) &amp;
@@ -3726,11 +11726,11 @@
         modemPresetConfig = "Bw500Cr45Sf128"_x000D_
         modemPresetDescription = "Short/Fast"</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -3775,7 +11775,7 @@
         <f t="shared" ref="K15:K19" si="11">VLOOKUP($B15,$B$3:$N$10,12,FALSE)</f>
         <v>0x04</v>
       </c>
-      <c r="L15" s="19" t="str">
+      <c r="L15" s="40" t="str">
         <f t="shared" ref="L15:L19" si="12">"    if profile == " &amp; A15 &amp; ":" &amp; CHAR(13) &amp; CHAR(10) &amp;
 "        modemPreset = (" &amp; I15 &amp; ", " &amp; J15 &amp; ", " &amp; K15 &amp; ")  # Bw = " &amp; E15 &amp; "kHz, Cr = " &amp; F15 &amp; "," &amp; CHAR(13) &amp; CHAR(10) &amp;
 "        #   Sf = " &amp; G15 &amp; "chips/symbol, CRC on." &amp; CHAR(13) &amp; CHAR(10) &amp;
@@ -3787,11 +11787,11 @@
         modemPresetConfig = "Bw125Cr45Sf128"_x000D_
         modemPresetDescription = "Short/Slow"</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="42"/>
     </row>
     <row r="16" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -3836,7 +11836,7 @@
         <f t="shared" si="11"/>
         <v>0x04</v>
       </c>
-      <c r="L16" s="19" t="str">
+      <c r="L16" s="40" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">    if profile == 3:_x000D_
         modemPreset = (0x82, 0xA4, 0x04)  # Bw = 250kHz, Cr = 4/7,_x000D_
@@ -3844,11 +11844,11 @@
         modemPresetConfig = "Bw250Cr47Sf1024"_x000D_
         modemPresetDescription = "Medium/Fast"</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="21"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
     </row>
     <row r="17" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -3893,7 +11893,7 @@
         <f t="shared" si="11"/>
         <v>0x04</v>
       </c>
-      <c r="L17" s="19" t="str">
+      <c r="L17" s="40" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">    if profile == 4:_x000D_
         modemPreset = (0x84, 0xB4, 0x04)  # Bw = 250kHz, Cr = 4/6,_x000D_
@@ -3901,11 +11901,11 @@
         modemPresetConfig = "Bw250Cr46Sf2048"_x000D_
         modemPresetDescription = "Medium/Slow"</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
@@ -3950,7 +11950,7 @@
         <f t="shared" si="11"/>
         <v>0x04</v>
       </c>
-      <c r="L18" s="19" t="str">
+      <c r="L18" s="40" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">    if profile == 5:_x000D_
         modemPreset = (0x48, 0x94, 0x04)  # Bw = 31.25kHz, Cr = 4/8,_x000D_
@@ -3958,11 +11958,11 @@
         modemPresetConfig = "Bw31_25Cr48Sf512"_x000D_
         modemPresetDescription = "Long/Fast"</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42"/>
     </row>
     <row r="19" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -4007,7 +12007,7 @@
         <f t="shared" si="11"/>
         <v>0x0C</v>
       </c>
-      <c r="L19" s="19" t="str">
+      <c r="L19" s="40" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">    if profile == 6:_x000D_
         modemPreset = (0x78, 0xC4, 0x0C)  # Bw = 125kHz, Cr = 4/8,_x000D_
@@ -4015,11 +12015,11 @@
         modemPresetConfig = "Bw125Cr48Sf4096"_x000D_
         modemPresetDescription = "Long/Slow"</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4038,4 +12038,457 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E21596F-B24F-4061-904A-F8C6C6BBF4CA}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="7">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>